--- a/docs/lut.xlsx
+++ b/docs/lut.xlsx
@@ -341,7 +341,7 @@
   <dimension ref="B1:F102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F102"/>
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -355,7 +355,7 @@
         <v>1.8</v>
       </c>
       <c r="D1">
-        <v>1.002</v>
+        <v>1.00187</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
@@ -387,13 +387,13 @@
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D66" si="1">POWER($D$1,C3)</f>
-        <v>1.002</v>
+        <v>1.00187</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -406,13 +406,13 @@
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>1.0069817086529911</v>
+        <v>1.0065268449599081</v>
       </c>
       <c r="E4">
         <v>6</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -425,13 +425,13 @@
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>1.0145396045367088</v>
+        <v>1.0135890270326677</v>
       </c>
       <c r="E5">
         <v>7</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -444,13 +444,13 @@
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>1.0245231101009287</v>
+        <v>1.0229124942995946</v>
       </c>
       <c r="E6">
         <v>8</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -463,13 +463,13 @@
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>1.0368660937842737</v>
+        <v>1.0344313006073349</v>
       </c>
       <c r="E7">
         <v>9</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -482,13 +482,13 @@
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>1.0515500397889546</v>
+        <v>1.0481231717434396</v>
       </c>
       <c r="E8">
         <v>10</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -501,13 +501,13 @@
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>1.0685894973280108</v>
+        <v>1.0639958670876994</v>
       </c>
       <c r="E9">
         <v>11</v>
       </c>
       <c r="F9">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -520,13 +520,13 @@
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>1.0880250479836644</v>
+        <v>1.0820805447727853</v>
       </c>
       <c r="E10">
         <v>12</v>
       </c>
       <c r="F10">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -539,13 +539,13 @@
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>1.1099195970121976</v>
+        <v>1.1024282128024412</v>
       </c>
       <c r="E11">
         <v>13</v>
       </c>
       <c r="F11">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -558,13 +558,13 @@
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>1.1343564042969629</v>
+        <v>1.1251077861975054</v>
       </c>
       <c r="E12">
         <v>14</v>
       </c>
       <c r="F12">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -577,13 +577,13 @@
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>1.1614381475836453</v>
+        <v>1.150205088760559</v>
       </c>
       <c r="E13">
         <v>15</v>
       </c>
       <c r="F13">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -596,13 +596,13 @@
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>1.1912866658223331</v>
+        <v>1.1778224692421178</v>
       </c>
       <c r="E14">
         <v>16</v>
       </c>
       <c r="F14">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
@@ -615,13 +615,13 @@
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>1.2240431944113106</v>
+        <v>1.2080788543184111</v>
       </c>
       <c r="E15">
         <v>17</v>
       </c>
       <c r="F15">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
@@ -634,13 +634,13 @@
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>1.2598689878137941</v>
+        <v>1.2411101384422409</v>
       </c>
       <c r="E16">
         <v>18</v>
       </c>
       <c r="F16">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -653,13 +653,13 @@
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>1.2989462714215039</v>
+        <v>1.2770698534618257</v>
       </c>
       <c r="E17">
         <v>19</v>
       </c>
       <c r="F17">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -672,13 +672,13 @@
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>1.3414794922688427</v>
+        <v>1.3161300862702436</v>
       </c>
       <c r="E18">
         <v>20</v>
       </c>
       <c r="F18">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -691,13 +691,13 @@
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>1.3876968560229821</v>
+        <v>1.3584826288179983</v>
       </c>
       <c r="E19">
         <v>21</v>
       </c>
       <c r="F19">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -710,13 +710,13 @@
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>1.4378521500215666</v>
+        <v>1.4043403557176037</v>
       </c>
       <c r="E20">
         <v>22</v>
       </c>
       <c r="F20">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -729,13 +729,13 @@
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>1.4922268613856429</v>
+        <v>1.4539388326032072</v>
       </c>
       <c r="E21">
         <v>23</v>
       </c>
       <c r="F21">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -748,13 +748,13 @@
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>1.5511326067573523</v>
+        <v>1.5075381646308572</v>
       </c>
       <c r="E22">
         <v>24</v>
       </c>
       <c r="F22">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -767,13 +767,13 @@
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>1.6149138968161039</v>
+        <v>1.5654250997608568</v>
       </c>
       <c r="E23">
         <v>25</v>
       </c>
       <c r="F23">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -786,13 +786,13 @@
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>1.6839512649340573</v>
+        <v>1.6279154062197707</v>
       </c>
       <c r="E24">
         <v>26</v>
       </c>
       <c r="F24">
-        <v>26</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -805,13 +805,13 @@
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>1.7586647954973718</v>
+        <v>1.6953565481063764</v>
       </c>
       <c r="E25">
         <v>27</v>
       </c>
       <c r="F25">
-        <v>27</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -824,13 +824,13 @@
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>1.8395180938057694</v>
+        <v>1.7681306877031533</v>
       </c>
       <c r="E26">
         <v>28</v>
       </c>
       <c r="F26">
-        <v>28</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -843,13 +843,13 @@
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>1.9270227462798284</v>
+        <v>1.8466580478507544</v>
       </c>
       <c r="E27">
         <v>29</v>
       </c>
       <c r="F27">
-        <v>29</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -862,13 +862,13 @@
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>2.0217433271366736</v>
+        <v>1.9314006728761293</v>
       </c>
       <c r="E28">
         <v>30</v>
       </c>
       <c r="F28">
-        <v>30</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -881,13 +881,13 @@
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>2.124303015913739</v>
+        <v>2.0228666321596158</v>
       </c>
       <c r="E29">
         <v>31</v>
       </c>
       <c r="F29">
-        <v>31</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
@@ -900,13 +900,13 @@
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>2.235389899401337</v>
+        <v>2.1216147166012833</v>
       </c>
       <c r="E30">
         <v>32</v>
       </c>
       <c r="F30">
-        <v>32</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
@@ -919,13 +919,13 @@
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>2.3557640418710095</v>
+        <v>2.2282596851222491</v>
       </c>
       <c r="E31">
         <v>33</v>
       </c>
       <c r="F31">
-        <v>33</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
@@ -938,13 +938,13 @@
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>2.4862654191575451</v>
+        <v>2.3434781260395803</v>
       </c>
       <c r="E32">
         <v>34</v>
       </c>
       <c r="F32">
-        <v>34</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -957,13 +957,13 @@
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>2.6278228253893521</v>
+        <v>2.4680150068215116</v>
       </c>
       <c r="E33">
         <v>35</v>
       </c>
       <c r="F33">
-        <v>35</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -976,13 +976,13 @@
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
-        <v>2.7814638762137047</v>
+        <v>2.6026909955152773</v>
       </c>
       <c r="E34">
         <v>36</v>
       </c>
       <c r="F34">
-        <v>36</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
@@ -995,13 +995,13 @@
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
-        <v>2.9483262495139186</v>
+        <v>2.7484106482142718</v>
       </c>
       <c r="E35">
         <v>37</v>
       </c>
       <c r="F35">
-        <v>37</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
@@ -1014,13 +1014,13 @@
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
-        <v>3.1296703241886314</v>
+        <v>2.9061715694876091</v>
       </c>
       <c r="E36">
         <v>38</v>
       </c>
       <c r="F36">
-        <v>38</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -1033,13 +1033,13 @@
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
-        <v>3.3268933999314907</v>
+        <v>3.0770746669536861</v>
       </c>
       <c r="E37">
         <v>39</v>
       </c>
       <c r="F37">
-        <v>39</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -1052,13 +1052,13 @@
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
-        <v>3.5415457065416813</v>
+        <v>3.2623356373915691</v>
       </c>
       <c r="E38">
         <v>40</v>
       </c>
       <c r="F38">
-        <v>40</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -1071,13 +1071,13 @@
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>3.775348440606574</v>
+        <v>3.4632978402376136</v>
       </c>
       <c r="E39">
         <v>41</v>
       </c>
       <c r="F39">
-        <v>41</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -1090,13 +1090,13 @@
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
-        <v>4.0302141010007473</v>
+        <v>3.6814467353410283</v>
       </c>
       <c r="E40">
         <v>42</v>
       </c>
       <c r="F40">
-        <v>42</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
@@ -1109,13 +1109,13 @@
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
-        <v>4.3082694332022582</v>
+        <v>3.9184260858302098</v>
       </c>
       <c r="E41">
         <v>43</v>
       </c>
       <c r="F41">
-        <v>43</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
@@ -1128,13 +1128,13 @@
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
-        <v>4.6118813367073637</v>
+        <v>4.1760561543106549</v>
       </c>
       <c r="E42">
         <v>44</v>
       </c>
       <c r="F42">
-        <v>44</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
@@ -1147,13 +1147,13 @@
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
-        <v>4.9436861407189125</v>
+        <v>4.4563541518781866</v>
       </c>
       <c r="E43">
         <v>45</v>
       </c>
       <c r="F43">
-        <v>45</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
@@ -1166,13 +1166,13 @@
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
-        <v>5.3066227118281066</v>
+        <v>4.7615572351713382</v>
       </c>
       <c r="E44">
         <v>46</v>
       </c>
       <c r="F44">
-        <v>46</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
@@ -1185,13 +1185,13 @@
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
-        <v>5.703969924806767</v>
+        <v>5.0941483875750029</v>
       </c>
       <c r="E45">
         <v>47</v>
       </c>
       <c r="F45">
-        <v>47</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
@@ -1204,13 +1204,13 @@
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
-        <v>6.1393891052783491</v>
+        <v>5.45688556750099</v>
       </c>
       <c r="E46">
         <v>48</v>
       </c>
       <c r="F46">
-        <v>48</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
@@ -1223,13 +1223,13 @@
       </c>
       <c r="D47">
         <f t="shared" si="1"/>
-        <v>6.616972142570309</v>
+        <v>5.8528345603077003</v>
       </c>
       <c r="E47">
         <v>49</v>
       </c>
       <c r="F47">
-        <v>49</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
@@ -1242,13 +1242,13 @@
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
-        <v>7.1412960743672143</v>
+        <v>6.2854060319200329</v>
       </c>
       <c r="E48">
         <v>50</v>
       </c>
       <c r="F48">
-        <v>50</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
@@ -1261,13 +1261,13 @@
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
-        <v>7.7174850640971799</v>
+        <v>6.7583973527752397</v>
       </c>
       <c r="E49">
         <v>51</v>
       </c>
       <c r="F49">
-        <v>51</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
@@ -1280,13 +1280,13 @@
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
-        <v>8.3512808298781369</v>
+        <v>7.2760398417463543</v>
       </c>
       <c r="E50">
         <v>52</v>
       </c>
       <c r="F50">
-        <v>52</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
@@ -1299,13 +1299,13 @@
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
-        <v>9.0491227433411012</v>
+        <v>7.8430521727985294</v>
       </c>
       <c r="E51">
         <v>53</v>
       </c>
       <c r="F51">
-        <v>53</v>
+        <v>266</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
@@ -1318,13 +1318,13 @@
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
-        <v>9.8182390012629615</v>
+        <v>8.4647007941949362</v>
       </c>
       <c r="E52">
         <v>54</v>
       </c>
       <c r="F52">
-        <v>54</v>
+        <v>276</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
@@ -1337,13 +1337,13 @@
       </c>
       <c r="D53">
         <f t="shared" si="1"/>
-        <v>10.666750486802233</v>
+        <v>9.1468683332656937</v>
       </c>
       <c r="E53">
         <v>55</v>
       </c>
       <c r="F53">
-        <v>55</v>
+        <v>286</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
@@ -1356,13 +1356,13 @@
       </c>
       <c r="D54">
         <f t="shared" si="1"/>
-        <v>11.603789185067361</v>
+        <v>9.8961311016232845</v>
       </c>
       <c r="E54">
         <v>56</v>
       </c>
       <c r="F54">
-        <v>56</v>
+        <v>296</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
@@ -1375,13 +1375,13 @@
       </c>
       <c r="D55">
         <f t="shared" si="1"/>
-        <v>12.639633305408285</v>
+        <v>10.719846979195911</v>
       </c>
       <c r="E55">
         <v>57</v>
       </c>
       <c r="F55">
-        <v>57</v>
+        <v>306</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
@@ -1394,13 +1394,13 @@
       </c>
       <c r="D56">
         <f t="shared" si="1"/>
-        <v>13.785861596837163</v>
+        <v>11.626255143989681</v>
       </c>
       <c r="E56">
         <v>58</v>
       </c>
       <c r="F56">
-        <v>58</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
@@ -1413,13 +1413,13 @@
       </c>
       <c r="D57">
         <f t="shared" si="1"/>
-        <v>15.055529731123684</v>
+        <v>12.624589332074351</v>
       </c>
       <c r="E57">
         <v>59</v>
       </c>
       <c r="F57">
-        <v>59</v>
+        <v>326</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
@@ -1432,13 +1432,13 @@
       </c>
       <c r="D58">
         <f t="shared" si="1"/>
-        <v>16.463372079501266</v>
+        <v>13.725206563575254</v>
       </c>
       <c r="E58">
         <v>60</v>
       </c>
       <c r="F58">
-        <v>60</v>
+        <v>337</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
@@ -1451,13 +1451,13 @@
       </c>
       <c r="D59">
         <f t="shared" si="1"/>
-        <v>18.026032734281944</v>
+        <v>14.939733560875705</v>
       </c>
       <c r="E59">
         <v>61</v>
       </c>
       <c r="F59">
-        <v>61</v>
+        <v>348</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
@@ -1470,13 +1470,13 @@
       </c>
       <c r="D60">
         <f t="shared" si="1"/>
-        <v>19.762330238612599</v>
+        <v>16.281233421128348</v>
       </c>
       <c r="E60">
         <v>62</v>
       </c>
       <c r="F60">
-        <v>62</v>
+        <v>359</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
@@ -1489,13 +1489,13 @@
       </c>
       <c r="D61">
         <f t="shared" si="1"/>
-        <v>21.693561200945545</v>
+        <v>17.764395493946612</v>
       </c>
       <c r="E61">
         <v>63</v>
       </c>
       <c r="F61">
-        <v>63</v>
+        <v>370</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
@@ -1508,13 +1508,13 @@
       </c>
       <c r="D62">
         <f t="shared" si="1"/>
-        <v>23.843848803001425</v>
+        <v>19.405751865447506</v>
       </c>
       <c r="E62">
         <v>64</v>
       </c>
       <c r="F62">
-        <v>64</v>
+        <v>381</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
@@ -1527,13 +1527,13 @@
       </c>
       <c r="D63">
         <f t="shared" si="1"/>
-        <v>26.240543181655415</v>
+        <v>21.223924371772508</v>
       </c>
       <c r="E63">
         <v>65</v>
       </c>
       <c r="F63">
-        <v>65</v>
+        <v>393</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
@@ -1546,13 +1546,13 @@
       </c>
       <c r="D64">
         <f t="shared" si="1"/>
-        <v>28.914681800535536</v>
+        <v>23.239906670657728</v>
       </c>
       <c r="E64">
         <v>66</v>
       </c>
       <c r="F64">
-        <v>66</v>
+        <v>405</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
@@ -1565,13 +1565,13 @@
       </c>
       <c r="D65">
         <f t="shared" si="1"/>
-        <v>31.901519254842079</v>
+        <v>25.477386602447723</v>
       </c>
       <c r="E65">
         <v>67</v>
       </c>
       <c r="F65">
-        <v>67</v>
+        <v>417</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
@@ -1584,13 +1584,13 @@
       </c>
       <c r="D66">
         <f t="shared" si="1"/>
-        <v>35.241137506789848</v>
+        <v>27.963114888393783</v>
       </c>
       <c r="E66">
         <v>68</v>
       </c>
       <c r="F66">
-        <v>68</v>
+        <v>429</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
@@ -1603,13 +1603,13 @@
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D102" si="3">POWER($D$1,C67)</f>
-        <v>38.979149369144743</v>
+        <v>30.727327163235692</v>
       </c>
       <c r="E67">
         <v>69</v>
       </c>
       <c r="F67">
-        <v>69</v>
+        <v>441</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
@@ -1622,13 +1622,13 @@
       </c>
       <c r="D68">
         <f t="shared" si="3"/>
-        <v>43.167510187859691</v>
+        <v>33.804227443309088</v>
       </c>
       <c r="E68">
         <v>70</v>
       </c>
       <c r="F68">
-        <v>70</v>
+        <v>454</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
@@ -1641,13 +1641,13 @@
       </c>
       <c r="D69">
         <f t="shared" si="3"/>
-        <v>47.865455177832807</v>
+        <v>37.232542417062078</v>
       </c>
       <c r="E69">
         <v>71</v>
       </c>
       <c r="F69">
-        <v>71</v>
+        <v>467</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
@@ -1660,13 +1660,13 @@
       </c>
       <c r="D70">
         <f t="shared" si="3"/>
-        <v>53.140582804632317</v>
+        <v>41.056157442790038</v>
       </c>
       <c r="E70">
         <v>72</v>
       </c>
       <c r="F70">
-        <v>72</v>
+        <v>480</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
@@ -1679,13 +1679,13 @@
       </c>
       <c r="D71">
         <f t="shared" si="3"/>
-        <v>59.070108058364667</v>
+        <v>45.324846884993427</v>
       </c>
       <c r="E71">
         <v>73</v>
       </c>
       <c r="F71">
-        <v>73</v>
+        <v>493</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
@@ -1698,13 +1698,13 @@
       </c>
       <c r="D72">
         <f t="shared" si="3"/>
-        <v>65.742313527025956</v>
+        <v>50.09511345880339</v>
       </c>
       <c r="E72">
         <v>74</v>
       </c>
       <c r="F72">
-        <v>74</v>
+        <v>506</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
@@ -1717,13 +1717,13 @@
       </c>
       <c r="D73">
         <f t="shared" si="3"/>
-        <v>73.258230956547095</v>
+        <v>55.431153631830817</v>
       </c>
       <c r="E73">
         <v>75</v>
       </c>
       <c r="F73">
-        <v>75</v>
+        <v>520</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
@@ -1736,14 +1736,14 @@
       </c>
       <c r="D74">
         <f t="shared" si="3"/>
-        <v>81.733591615086013</v>
+        <v>61.405968914010757</v>
       </c>
       <c r="E74">
         <f>ROUND(D74,0)</f>
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F74">
-        <v>82</v>
+        <v>534</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
@@ -1756,14 +1756,14 @@
       </c>
       <c r="D75">
         <f t="shared" si="3"/>
-        <v>91.301090416631794</v>
+        <v>68.102646118631611</v>
       </c>
       <c r="E75">
-        <f t="shared" ref="E75:F102" si="4">ROUND(D75,0)</f>
-        <v>91</v>
+        <f t="shared" ref="E75:E102" si="4">ROUND(D75,0)</f>
+        <v>68</v>
       </c>
       <c r="F75">
-        <v>91</v>
+        <v>548</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
@@ -1776,14 +1776,14 @@
       </c>
       <c r="D76">
         <f t="shared" si="3"/>
-        <v>102.11301659024149</v>
+        <v>75.615833484546755</v>
       </c>
       <c r="E76">
         <f t="shared" si="4"/>
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="F76">
-        <v>102</v>
+        <v>562</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
@@ -1796,14 +1796,14 @@
       </c>
       <c r="D77">
         <f t="shared" si="3"/>
-        <v>114.34431292841079</v>
+        <v>84.053444008305405</v>
       </c>
       <c r="E77">
         <f t="shared" si="4"/>
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="F77">
-        <v>114</v>
+        <v>577</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
@@ -1816,14 +1816,14 @@
       </c>
       <c r="D78">
         <f t="shared" si="3"/>
-        <v>128.19613657623159</v>
+        <v>93.538622561278203</v>
       </c>
       <c r="E78">
         <f t="shared" si="4"/>
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="F78">
-        <v>128</v>
+        <v>592</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
@@ -1836,14 +1836,14 @@
       </c>
       <c r="D79">
         <f t="shared" si="3"/>
-        <v>143.90000724809624</v>
+        <v>104.21201949746575</v>
       </c>
       <c r="E79">
         <f t="shared" si="4"/>
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="F79">
-        <v>144</v>
+        <v>607</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
@@ -1856,14 +1856,14 @@
       </c>
       <c r="D80">
         <f t="shared" si="3"/>
-        <v>161.72264405844189</v>
+        <v>116.23442065460127</v>
       </c>
       <c r="E80">
         <f t="shared" si="4"/>
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="F80">
-        <v>162</v>
+        <v>622</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
@@ -1876,14 +1876,14 @@
       </c>
       <c r="D81">
         <f t="shared" si="3"/>
-        <v>181.97161027837771</v>
+        <v>129.7897921061828</v>
       </c>
       <c r="E81">
         <f t="shared" si="4"/>
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="F81">
-        <v>182</v>
+        <v>637</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
@@ -1896,14 +1896,14 @@
       </c>
       <c r="D82">
         <f t="shared" si="3"/>
-        <v>205.00190682058846</v>
+        <v>145.0888079626871</v>
       </c>
       <c r="E82">
         <f t="shared" si="4"/>
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="F82">
-        <v>205</v>
+        <v>653</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
@@ -1916,14 +1916,14 @@
       </c>
       <c r="D83">
         <f t="shared" si="3"/>
-        <v>231.22368075661868</v>
+        <v>162.37294121648759</v>
       </c>
       <c r="E83">
         <f t="shared" si="4"/>
-        <v>231</v>
+        <v>162</v>
       </c>
       <c r="F83">
-        <v>231</v>
+        <v>669</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
@@ -1936,14 +1936,14 @@
       </c>
       <c r="D84">
         <f t="shared" si="3"/>
-        <v>261.11124545684822</v>
+        <v>181.91921139724388</v>
       </c>
       <c r="E84">
         <f t="shared" si="4"/>
-        <v>261</v>
+        <v>182</v>
       </c>
       <c r="F84">
-        <v>261</v>
+        <v>685</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
@@ -1956,14 +1956,14 @@
       </c>
       <c r="D85">
         <f t="shared" si="3"/>
-        <v>295.21364494211394</v>
+        <v>204.04569903398004</v>
       </c>
       <c r="E85">
         <f t="shared" si="4"/>
-        <v>295</v>
+        <v>204</v>
       </c>
       <c r="F85">
-        <v>295</v>
+        <v>701</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
@@ -1976,14 +1976,14 @@
       </c>
       <c r="D86">
         <f t="shared" si="3"/>
-        <v>334.16703785928638</v>
+        <v>229.11795605934302</v>
       </c>
       <c r="E86">
         <f t="shared" si="4"/>
-        <v>334</v>
+        <v>229</v>
       </c>
       <c r="F86">
-        <v>334</v>
+        <v>717</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
@@ -1996,14 +1996,14 @@
       </c>
       <c r="D87">
         <f t="shared" si="3"/>
-        <v>378.70922747800421</v>
+        <v>257.55646388010854</v>
       </c>
       <c r="E87">
         <f t="shared" si="4"/>
-        <v>379</v>
+        <v>258</v>
       </c>
       <c r="F87">
-        <v>379</v>
+        <v>734</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
@@ -2016,14 +2016,14 @@
       </c>
       <c r="D88">
         <f t="shared" si="3"/>
-        <v>429.69672485755626</v>
+        <v>289.84531751758368</v>
       </c>
       <c r="E88">
         <f t="shared" si="4"/>
-        <v>430</v>
+        <v>290</v>
       </c>
       <c r="F88">
-        <v>430</v>
+        <v>751</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
@@ -2036,14 +2036,14 @@
       </c>
       <c r="D89">
         <f t="shared" si="3"/>
-        <v>488.12480478336357</v>
+        <v>326.54234575768697</v>
       </c>
       <c r="E89">
         <f t="shared" si="4"/>
-        <v>488</v>
+        <v>327</v>
       </c>
       <c r="F89">
-        <v>488</v>
+        <v>768</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.25">
@@ -2056,14 +2056,14 @@
       </c>
       <c r="D90">
         <f t="shared" si="3"/>
-        <v>555.15110054589843</v>
+        <v>368.29091455549286</v>
       </c>
       <c r="E90">
         <f t="shared" si="4"/>
-        <v>555</v>
+        <v>368</v>
       </c>
       <c r="F90">
-        <v>555</v>
+        <v>785</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
@@ -2076,14 +2076,14 @@
       </c>
       <c r="D91">
         <f t="shared" si="3"/>
-        <v>632.12338693239258</v>
+        <v>415.83370510288955</v>
       </c>
       <c r="E91">
         <f t="shared" si="4"/>
-        <v>632</v>
+        <v>416</v>
       </c>
       <c r="F91">
-        <v>632</v>
+        <v>802</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.25">
@@ -2096,14 +2096,14 @@
       </c>
       <c r="D92">
         <f t="shared" si="3"/>
-        <v>720.61232429874076</v>
+        <v>470.02881029141139</v>
       </c>
       <c r="E92">
         <f t="shared" si="4"/>
-        <v>721</v>
+        <v>470</v>
       </c>
       <c r="F92">
-        <v>721</v>
+        <v>819</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.25">
@@ -2116,14 +2116,14 @@
       </c>
       <c r="D93">
         <f t="shared" si="3"/>
-        <v>822.45008436004662</v>
+        <v>531.86855534135202</v>
       </c>
       <c r="E93">
         <f t="shared" si="4"/>
-        <v>822</v>
+        <v>532</v>
       </c>
       <c r="F93">
-        <v>822</v>
+        <v>836</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.25">
@@ -2136,14 +2136,14 @@
       </c>
       <c r="D94">
         <f t="shared" si="3"/>
-        <v>939.77595530281997</v>
+        <v>602.50152198399473</v>
       </c>
       <c r="E94">
         <f t="shared" si="4"/>
-        <v>940</v>
+        <v>603</v>
       </c>
       <c r="F94">
-        <v>940</v>
+        <v>853</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.25">
@@ -2156,14 +2156,14 @@
       </c>
       <c r="D95">
         <f t="shared" si="3"/>
-        <v>1075.09023592413</v>
+        <v>683.25834300351175</v>
       </c>
       <c r="E95">
         <f t="shared" si="4"/>
-        <v>1075</v>
+        <v>683</v>
       </c>
       <c r="F95">
-        <v>1075</v>
+        <v>870</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
@@ -2176,14 +2176,14 @@
       </c>
       <c r="D96">
         <f t="shared" si="3"/>
-        <v>1231.3179829355386</v>
+        <v>775.68193783900858</v>
       </c>
       <c r="E96">
         <f t="shared" si="4"/>
-        <v>1231</v>
+        <v>776</v>
       </c>
       <c r="F96">
-        <v>1231</v>
+        <v>887</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
@@ -2196,14 +2196,14 @@
       </c>
       <c r="D97">
         <f t="shared" si="3"/>
-        <v>1411.8844810357095</v>
+        <v>881.56298351495877</v>
       </c>
       <c r="E97">
         <f t="shared" si="4"/>
-        <v>1412</v>
+        <v>882</v>
       </c>
       <c r="F97">
-        <v>1412</v>
+        <v>983</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
@@ -2216,14 +2216,14 @@
       </c>
       <c r="D98">
         <f t="shared" si="3"/>
-        <v>1620.8046724011792</v>
+        <v>1002.9815622502458</v>
       </c>
       <c r="E98">
         <f t="shared" si="4"/>
-        <v>1621</v>
+        <v>1003</v>
       </c>
       <c r="F98">
-        <v>1621</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.25">
@@ -2236,14 +2236,14 @@
       </c>
       <c r="D99">
         <f t="shared" si="3"/>
-        <v>1862.7892236569105</v>
+        <v>1142.356102303896</v>
       </c>
       <c r="E99">
         <f t="shared" si="4"/>
-        <v>1863</v>
+        <v>1142</v>
       </c>
       <c r="F99">
-        <v>1863</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
@@ -2256,14 +2256,14 @@
       </c>
       <c r="D100">
         <f t="shared" si="3"/>
-        <v>2143.370439681129</v>
+        <v>1302.50093748977</v>
       </c>
       <c r="E100">
         <f t="shared" si="4"/>
-        <v>2143</v>
+        <v>1303</v>
       </c>
       <c r="F100">
-        <v>2143</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.25">
@@ -2276,14 +2276,14 @@
       </c>
       <c r="D101">
         <f t="shared" si="3"/>
-        <v>2469.05187361548</v>
+        <v>1486.694059996885</v>
       </c>
       <c r="E101">
         <f t="shared" si="4"/>
-        <v>2469</v>
+        <v>1487</v>
       </c>
       <c r="F101">
-        <v>2469</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
@@ -2296,19 +2296,19 @@
       </c>
       <c r="D102">
         <f t="shared" si="3"/>
-        <v>2847.4862540968707</v>
+        <v>1698.7569387081669</v>
       </c>
       <c r="E102">
         <f t="shared" si="4"/>
-        <v>2847</v>
+        <v>1699</v>
       </c>
       <c r="F102">
-        <v>2847</v>
+        <v>1914</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="2400" r:id="rId1"/>
 </worksheet>
 </file>
 
